--- a/biology/Médecine/Relation_médecin-patient/Relation_médecin-patient.xlsx
+++ b/biology/Médecine/Relation_médecin-patient/Relation_médecin-patient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La relation médecin-patient désigne l'ensemble des relations entre un médecin et son patient dans le cadre d'un acte ou d'un suivi thérapeutique. Le consentement éclairé et la confiance du patient, ainsi que l'écoute et l'empathie du médecin, sont des composantes de cette relation.
-En France, le Conseil de l'ordre des médecins, garant du code de déontologie médicale, « revendique et soutient que la relation singulière médecin-patient est le pivot de la médecine[1] » et qu'elle garantit :
+En France, le Conseil de l'ordre des médecins, garant du code de déontologie médicale, « revendique et soutient que la relation singulière médecin-patient est le pivot de la médecine » et qu'elle garantit :
 l’éthique médicale ;
 le diagnostic médical et la prise en compte du patient ;
 le choix thérapeutique, comme solution à la situation personnelle du patient ;
 l’équilibre économique global de la santé en préservant l’intérêt du patient ;
 la santé collective et individuelle.
-La qualité de la relation médecin-patient joue un rôle certain dans l'effet placebo[2],[3].
+La qualité de la relation médecin-patient joue un rôle certain dans l'effet placebo,.
 « Lorsque le médecin a substitué à la plainte du malade et à sa représentation subjective des causes de son mal, ce que la rationalité contraint de reconnaître comme la vérité de sa maladie, le médecin n'a pas pour autant réduit la subjectivité du malade. Il lui a permis une possession de son mal différente. Et s'il n'a cherché à l'en déposséder, en lui affirmant qu'il n'est atteint d'aucune maladie, il n'a pas toujours réussi à le déposséder de sa croyance en lui-même malade, et parfois même de sa complaisance en lui-même malade. 
 En bref, il est impossible d'annuler dans l'objectivité du savoir médical la subjectivité de l'expérience vécue du malade. Ce n'est donc pas dans cette impuissance qu'il faut chercher la défaillance caractéristique de l'exercice de la médecine. Elle a lieu dans l'oubli, en son sens freudien, du pouvoir de dédoublement propre au médecin qui lui permettrait de se projeter lui-même dans la situation de malade, l'objectivité de son savoir étant non pas répudiée mais mise en réserve. Car il revient au médecin de se représenter qu'il est un malade potentiel et qu'il n'est pas mieux assuré que ne le sont ses malades de réussir, le cas échéant, à substituer ses connaissances à son angoisse. »
 — Georges Canguilhem
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Explication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La relation médecin-patient a traditionnellement suivi ce que l'on pourrait nommer le « modèle paternaliste ». Dans ce modèle, le médecin est persuadé de savoir et d'être objectif. Il se voit comme le gardien de l'intérêt du patient. Il prend les décisions pour lui, en respectant simplement un principe de bienfaisance.
 Le principe de bienfaisance pourrait être explicité comme :
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Science et démocratie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport patient-médecin est un exemple caractéristique de la manière dont les cultures occidentales gèrent les rapports entre science et démocratie. En effet alors que les avatars de la technologie (Internet en particulier) envahissent de plus en plus le monde contemporain et modifient indubitablement notre relation aux autres ou notre façon de nous penser humain (et de penser notre être dans le monde), c'est toujours par l'intermédiaire du médical que le citoyen lambda se trouve le plus intimement confronté avec la science.
 H.T. Engelhardt a par exemple étudié comment le débat bioéthique pouvait s'inscrire dans l'éthique de la discussion de Jürgen Habermas. Habermas cherche à créer une éthique de la discussion dans l'espoir d'étouffer la violence, puisque si je peux parler avec l'autre c'est que j'ai déjà une rationalité commune avec lui.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,6 +610,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>L'antipsychiatrie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la santé mentale, la critique de la science comme un pouvoir oppresseur s'est particulièrement cristallisée avec le courant de l'antipsychiatrie. Pour Michel Foucault (Foucault, 1972), c'est bien la psychiatrie qui a commencé le biopouvoir et non pas les biotechnologies. La psychiatrie a en effet modifié la façon de penser la notion de personne dont nous parlions plus haut.
 Donnons comme exemple de l'aspect potentiellement oppresseur de la psychiatrie la célèbre recherche de David L. Rosenhan (Rosenhan, 1981), Être sain dans un environnement malade, dans laquelle il envoya des faux patients se faire interner dans des hôpitaux psychiatriques.
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Relation_m%C3%A9decin-patient</t>
+          <t>Relation_médecin-patient</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Médecines alternatives</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Si donc les médecins se doivent d'élaborer un contrat thérapeutique avec leurs patients, nous retrouvons le même genre de difficulté au niveau plus global de la société avec les médecines alternatives ou complémentaires. Le problème soulevé par ces médecines alternatives, comme l'homéopathie par exemple, est leur manque de scientificité. Le mouvement sceptique n'hésite pas à nommer ces pratiques des pseudo-sciences.
 Dans ce champ nébuleux des médecines alternatives se trouvent aussi toutes les personnes qui pensent pouvoir soigner par la simple imposition des mains, et qui aux yeux des scientifiques ne font finalement que de l'hypnose de masse (Joe Nickell, 2001). On retrouve d'ailleurs très souvent dans ces approches des éléments de pensée magique (Stevens, 2001, Ruscio, 2001).
